--- a/data/trans_orig/Q5414-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C53F8F4B-4B42-4E02-AFDE-59321CA5AD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37D48EFC-EB8E-43F5-BA77-8006B8F06B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{128E6010-0B48-48A4-B64B-49F90638F10C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{567E261B-3EA9-44D4-B058-B368DE066ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="446">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -125,1252 +125,1258 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,32%</t>
+    <t>3,78%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>0,82%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>98,81%</t>
+    <t>98,82%</t>
   </si>
   <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>95,44%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>97,85%</t>
+    <t>97,92%</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB81E4-BD09-4C69-81EF-E6C8E69FB237}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554E0731-F61D-40F2-B8F0-E4B2485DF52D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2241,7 +2247,7 @@
         <v>212</v>
       </c>
       <c r="N10" s="7">
-        <v>208802</v>
+        <v>208803</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>41</v>
@@ -2292,7 +2298,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>20</v>
@@ -2745,13 +2751,13 @@
         <v>2021</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2760,13 +2766,13 @@
         <v>2859</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2787,13 @@
         <v>1640</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2796,13 +2802,13 @@
         <v>2265</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -2811,13 +2817,13 @@
         <v>3905</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2838,13 @@
         <v>134738</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>196</v>
@@ -2847,13 +2853,13 @@
         <v>204492</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>349</v>
@@ -2862,13 +2868,13 @@
         <v>339231</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2942,13 @@
         <v>1824</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -2951,13 +2957,13 @@
         <v>4363</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -2966,13 +2972,13 @@
         <v>6188</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2993,13 @@
         <v>8094</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3002,13 +3008,13 @@
         <v>8696</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -3017,13 +3023,13 @@
         <v>16790</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3044,13 @@
         <v>492548</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>648</v>
@@ -3053,13 +3059,13 @@
         <v>663783</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>1160</v>
@@ -3068,13 +3074,13 @@
         <v>1156331</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,7 +3136,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FF77CF-6D74-415B-BFE0-1756F7B56D10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49B5E7F-41F9-43D6-98EF-FEEBD5D63462}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3168,7 +3174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3281,7 +3287,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3296,7 +3302,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3311,7 +3317,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3347,7 +3353,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3362,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,7 +3386,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -3395,7 +3401,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>20</v>
@@ -3410,7 +3416,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -3481,13 +3487,13 @@
         <v>1057</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3496,13 +3502,13 @@
         <v>2123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3511,13 +3517,13 @@
         <v>3180</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,10 +3538,10 @@
         <v>3186</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>141</v>
@@ -3613,13 +3619,13 @@
         <v>251466</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3693,13 @@
         <v>3028</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -3702,13 +3708,13 @@
         <v>4467</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -3717,13 +3723,13 @@
         <v>7494</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3744,13 @@
         <v>1111</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3756,10 +3762,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3768,13 +3774,13 @@
         <v>7892</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3795,13 @@
         <v>150739</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -3804,13 +3810,13 @@
         <v>180173</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>301</v>
@@ -3819,13 +3825,13 @@
         <v>330912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3899,13 @@
         <v>1062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3908,13 +3914,13 @@
         <v>2328</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3923,13 +3929,13 @@
         <v>3390</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3950,13 @@
         <v>4437</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3959,13 +3965,13 @@
         <v>6553</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3974,13 +3980,13 @@
         <v>10991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4001,13 @@
         <v>98099</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H18" s="7">
         <v>122</v>
@@ -4010,13 +4016,13 @@
         <v>132138</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -4025,13 +4031,13 @@
         <v>230237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,7 +4111,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4114,13 +4120,13 @@
         <v>4236</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4129,13 +4135,13 @@
         <v>5228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4156,13 @@
         <v>5125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -4165,13 +4171,13 @@
         <v>6177</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -4180,13 +4186,13 @@
         <v>11302</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4207,13 @@
         <v>155496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>221</v>
@@ -4216,13 +4222,13 @@
         <v>233337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -4231,13 +4237,13 @@
         <v>388833</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,10 +4314,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -4320,10 +4326,10 @@
         <v>13153</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>225</v>
@@ -4338,10 +4344,10 @@
         <v>226</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4362,13 @@
         <v>13860</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4371,13 +4377,13 @@
         <v>21620</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -4386,13 +4392,13 @@
         <v>35480</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4413,13 @@
         <v>539639</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H26" s="7">
         <v>663</v>
@@ -4422,13 +4428,13 @@
         <v>708201</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M26" s="7">
         <v>1150</v>
@@ -4437,13 +4443,13 @@
         <v>1247840</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,7 +4505,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4520,7 +4526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ED9645-AC89-4357-8AAA-F4FE485FE4C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EAFD78-14BB-4234-A560-8A36EA1732AF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4537,7 +4543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4650,7 +4656,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4665,7 +4671,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4680,7 +4686,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,7 +4707,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4710,13 +4716,13 @@
         <v>1164</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4725,13 +4731,13 @@
         <v>1164</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,7 +4755,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -4761,10 +4767,10 @@
         <v>22275</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>18</v>
@@ -4776,10 +4782,10 @@
         <v>43963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>18</v>
@@ -4856,7 +4862,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4871,7 +4877,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4880,13 +4886,13 @@
         <v>1194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4907,13 @@
         <v>3354</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4916,13 +4922,13 @@
         <v>4609</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>145</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -4931,13 +4937,13 @@
         <v>7963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4958,13 @@
         <v>111692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -4967,13 +4973,13 @@
         <v>144148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>250</v>
@@ -4982,13 +4988,13 @@
         <v>255840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5062,13 @@
         <v>912</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5077,7 +5083,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -5086,13 +5092,13 @@
         <v>4182</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5113,13 @@
         <v>3443</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5122,13 +5128,13 @@
         <v>3608</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5137,13 +5143,13 @@
         <v>7051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5164,13 @@
         <v>160586</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>119</v>
       </c>
       <c r="H14" s="7">
         <v>177</v>
@@ -5173,13 +5179,13 @@
         <v>212285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>347</v>
@@ -5188,13 +5194,13 @@
         <v>372871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5277,13 +5283,13 @@
         <v>3656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5292,13 +5298,13 @@
         <v>3656</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5319,13 @@
         <v>1020</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5328,13 +5334,13 @@
         <v>6949</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5343,13 +5349,13 @@
         <v>7969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,10 +5370,10 @@
         <v>114015</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>18</v>
@@ -5379,13 +5385,13 @@
         <v>131991</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>223</v>
@@ -5394,13 +5400,13 @@
         <v>246006</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,7 +5489,7 @@
         <v>1233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -5525,7 +5531,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5540,7 +5546,7 @@
         <v>313</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5549,10 +5555,10 @@
         <v>6034</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>316</v>
@@ -5603,7 +5609,7 @@
         <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>323</v>
@@ -5680,7 +5686,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -5689,13 +5695,13 @@
         <v>9353</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -5704,10 +5710,10 @@
         <v>10265</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>67</v>
@@ -5725,13 +5731,13 @@
         <v>8581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -5740,13 +5746,13 @@
         <v>21600</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -5755,13 +5761,13 @@
         <v>30181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5782,13 @@
         <v>581835</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H26" s="7">
         <v>631</v>
@@ -5791,13 +5797,13 @@
         <v>746978</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>337</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -5806,13 +5812,13 @@
         <v>1328813</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,7 +5874,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5889,7 +5895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF966B42-5385-4206-A07E-AEFB4FD6A0BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7829B58F-6C7D-4756-9D27-C6F262BC7078}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5906,7 +5912,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6013,13 +6019,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6028,13 +6034,13 @@
         <v>484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6043,13 +6049,13 @@
         <v>858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,7 +6076,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6079,13 +6085,13 @@
         <v>1110</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6097,10 +6103,10 @@
         <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,10 +6121,10 @@
         <v>29290</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>18</v>
@@ -6130,13 +6136,13 @@
         <v>43826</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>123</v>
+        <v>355</v>
       </c>
       <c r="M6" s="7">
         <v>154</v>
@@ -6145,13 +6151,13 @@
         <v>73117</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6225,13 @@
         <v>721</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -6234,13 +6240,13 @@
         <v>1766</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6249,13 +6255,13 @@
         <v>2487</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6276,13 @@
         <v>2228</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -6285,13 +6291,13 @@
         <v>5393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -6300,13 +6306,13 @@
         <v>7620</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>368</v>
+        <v>206</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>178</v>
+        <v>370</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6327,13 @@
         <v>122028</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>317</v>
@@ -6336,13 +6342,13 @@
         <v>140060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>517</v>
@@ -6351,13 +6357,13 @@
         <v>262088</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6431,13 @@
         <v>1180</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>382</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -6440,13 +6446,13 @@
         <v>3210</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>379</v>
+        <v>230</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -6455,13 +6461,13 @@
         <v>4390</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6482,13 @@
         <v>3299</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -6494,10 +6500,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -6506,13 +6512,13 @@
         <v>11908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6533,13 @@
         <v>169367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>427</v>
@@ -6542,13 +6548,13 @@
         <v>231076</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>674</v>
@@ -6557,13 +6563,13 @@
         <v>400443</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,7 +6643,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6646,13 +6652,13 @@
         <v>1482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6661,13 +6667,13 @@
         <v>1482</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6688,13 @@
         <v>939</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -6697,13 +6703,13 @@
         <v>3400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6712,13 +6718,13 @@
         <v>4339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,10 +6739,10 @@
         <v>147251</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>60</v>
+        <v>410</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>251</v>
+        <v>411</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>18</v>
@@ -6751,10 +6757,10 @@
         <v>322</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>412</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="M18" s="7">
         <v>473</v>
@@ -6763,13 +6769,13 @@
         <v>423484</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,7 +6849,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -6852,13 +6858,13 @@
         <v>1331</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -6867,13 +6873,13 @@
         <v>1997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>166</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6894,13 @@
         <v>3539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -6903,13 +6909,13 @@
         <v>8831</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>414</v>
+        <v>264</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -6918,13 +6924,13 @@
         <v>12371</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6945,13 @@
         <v>216039</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>418</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>419</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>510</v>
@@ -6954,13 +6960,13 @@
         <v>299391</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>830</v>
@@ -6969,13 +6975,13 @@
         <v>515430</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7049,13 @@
         <v>2941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>426</v>
+        <v>365</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>427</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>428</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -7058,13 +7064,13 @@
         <v>8273</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -7073,13 +7079,13 @@
         <v>11214</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7100,13 @@
         <v>10005</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -7109,13 +7115,13 @@
         <v>27344</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -7127,10 +7133,10 @@
         <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7151,13 @@
         <v>683976</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>1643</v>
@@ -7160,13 +7166,13 @@
         <v>990585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
         <v>2648</v>
@@ -7175,13 +7181,13 @@
         <v>1674562</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,7 +7243,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5414-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37D48EFC-EB8E-43F5-BA77-8006B8F06B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FEAD190-E14D-439F-873E-3D2C235C9D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{567E261B-3EA9-44D4-B058-B368DE066ABC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{062B6387-B1CE-4BC2-81FB-7EE9C8F0E971}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="444">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No puede</t>
@@ -110,7 +110,7 @@
     <t>96,46%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,02%</t>
@@ -119,1224 +119,1221 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>1,35%</t>
   </si>
   <si>
@@ -1356,9 +1353,6 @@
   </si>
   <si>
     <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
   </si>
   <si>
     <t>98,14%</t>
@@ -1788,7 +1782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554E0731-F61D-40F2-B8F0-E4B2485DF52D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C029BA-3C17-4F7E-B7B3-45F8669E9187}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2247,7 +2241,7 @@
         <v>212</v>
       </c>
       <c r="N10" s="7">
-        <v>208803</v>
+        <v>208802</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>41</v>
@@ -2298,7 +2292,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>20</v>
@@ -2751,13 +2745,13 @@
         <v>2021</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2766,13 +2760,13 @@
         <v>2859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2781,13 @@
         <v>1640</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2802,13 +2796,13 @@
         <v>2265</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -2817,13 +2811,13 @@
         <v>3905</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2832,13 @@
         <v>134738</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>196</v>
@@ -2853,13 +2847,13 @@
         <v>204492</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>349</v>
@@ -2868,13 +2862,13 @@
         <v>339231</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2936,13 @@
         <v>1824</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -2957,13 +2951,13 @@
         <v>4363</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -2972,13 +2966,13 @@
         <v>6188</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2987,13 @@
         <v>8094</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3008,13 +3002,13 @@
         <v>8696</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -3023,13 +3017,13 @@
         <v>16790</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,13 +3038,13 @@
         <v>492548</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>648</v>
@@ -3059,13 +3053,13 @@
         <v>663783</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>1160</v>
@@ -3074,13 +3068,13 @@
         <v>1156331</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3130,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49B5E7F-41F9-43D6-98EF-FEEBD5D63462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F5D5FB-EA8F-420E-9C8A-4BD0F2369C69}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3174,7 +3168,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3302,7 +3296,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3317,7 +3311,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3353,7 +3347,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3368,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,7 +3380,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -3401,7 +3395,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>20</v>
@@ -3416,7 +3410,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -3487,13 +3481,13 @@
         <v>1057</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3502,13 +3496,13 @@
         <v>2123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3517,13 +3511,13 @@
         <v>3180</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3532,13 @@
         <v>3186</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3553,13 +3547,13 @@
         <v>2110</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -3568,13 +3562,13 @@
         <v>5296</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3583,13 @@
         <v>114107</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -3604,13 +3598,13 @@
         <v>137359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>231</v>
@@ -3619,13 +3613,13 @@
         <v>251466</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3687,13 @@
         <v>3028</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -3708,13 +3702,13 @@
         <v>4467</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -3723,13 +3717,13 @@
         <v>7494</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3738,13 @@
         <v>1111</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3762,10 +3756,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3774,13 +3768,13 @@
         <v>7892</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3789,13 @@
         <v>150739</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -3810,13 +3804,13 @@
         <v>180173</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>301</v>
@@ -3825,13 +3819,13 @@
         <v>330912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3893,13 @@
         <v>1062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3968,10 +3962,10 @@
         <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3980,13 +3974,13 @@
         <v>10991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +3995,13 @@
         <v>98099</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H18" s="7">
         <v>122</v>
@@ -4016,13 +4010,13 @@
         <v>132138</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -4031,13 +4025,13 @@
         <v>230237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,7 +4105,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4120,13 +4114,13 @@
         <v>4236</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4135,13 +4129,13 @@
         <v>5228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4150,13 @@
         <v>5125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -4171,13 +4165,13 @@
         <v>6177</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -4186,13 +4180,13 @@
         <v>11302</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4201,13 @@
         <v>155496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H22" s="7">
         <v>221</v>
@@ -4222,13 +4216,13 @@
         <v>233337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -4237,13 +4231,13 @@
         <v>388833</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,10 +4308,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -4326,13 +4320,13 @@
         <v>13153</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -4341,13 +4335,13 @@
         <v>19292</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4356,13 @@
         <v>13860</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4377,13 +4371,13 @@
         <v>21620</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -4392,13 +4386,13 @@
         <v>35480</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4407,13 @@
         <v>539639</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>238</v>
+        <v>59</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H26" s="7">
         <v>663</v>
@@ -4428,13 +4422,13 @@
         <v>708201</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" s="7">
         <v>1150</v>
@@ -4443,13 +4437,13 @@
         <v>1247840</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,7 +4499,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4526,7 +4520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EAFD78-14BB-4234-A560-8A36EA1732AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC762A-82AB-4598-B5E2-615B66F05859}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4543,7 +4537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4656,7 +4650,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4671,7 +4665,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4686,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,7 +4701,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4716,13 +4710,13 @@
         <v>1164</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4731,13 +4725,13 @@
         <v>1164</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,7 +4749,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -4767,10 +4761,10 @@
         <v>22275</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>18</v>
@@ -4782,10 +4776,10 @@
         <v>43963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>18</v>
@@ -4862,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4871,13 +4865,13 @@
         <v>1194</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4886,13 +4880,13 @@
         <v>1194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4901,13 @@
         <v>3354</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4922,13 +4916,13 @@
         <v>4609</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -4937,13 +4931,13 @@
         <v>7963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4952,13 @@
         <v>111692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -4973,28 +4967,28 @@
         <v>144148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>250</v>
       </c>
       <c r="N10" s="7">
-        <v>255840</v>
+        <v>255841</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,7 +5030,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>20</v>
@@ -5062,13 +5056,13 @@
         <v>912</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5077,13 +5071,13 @@
         <v>3270</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -5092,13 +5086,13 @@
         <v>4182</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5107,13 @@
         <v>3443</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5131,10 +5125,10 @@
         <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5143,13 +5137,13 @@
         <v>7051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5158,13 @@
         <v>160586</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>177</v>
@@ -5179,13 +5173,13 @@
         <v>212285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>347</v>
@@ -5194,13 +5188,13 @@
         <v>372871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,7 +5268,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5283,13 +5277,13 @@
         <v>3656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5298,13 +5292,13 @@
         <v>3656</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5313,13 @@
         <v>1020</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5334,13 +5328,13 @@
         <v>6949</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5349,13 +5343,13 @@
         <v>7969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,10 +5364,10 @@
         <v>114015</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>18</v>
@@ -5385,13 +5379,13 @@
         <v>131991</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M18" s="7">
         <v>223</v>
@@ -5400,13 +5394,13 @@
         <v>246006</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,7 +5474,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5489,13 +5483,13 @@
         <v>1233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>46</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5504,13 +5498,13 @@
         <v>1233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5519,13 @@
         <v>764</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5540,13 +5534,13 @@
         <v>5270</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5555,13 +5549,13 @@
         <v>6034</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>315</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>316</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,10 +5570,10 @@
         <v>173854</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>18</v>
@@ -5591,13 +5585,13 @@
         <v>236277</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>382</v>
@@ -5606,13 +5600,13 @@
         <v>410132</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5674,13 @@
         <v>912</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -5695,13 +5689,13 @@
         <v>9353</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>315</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>326</v>
+        <v>233</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -5710,13 +5704,13 @@
         <v>10265</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5725,13 @@
         <v>8581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -5746,13 +5740,13 @@
         <v>21600</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>331</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -5761,13 +5755,13 @@
         <v>30181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5776,13 @@
         <v>581835</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H26" s="7">
         <v>631</v>
@@ -5797,13 +5791,13 @@
         <v>746978</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -5812,13 +5806,13 @@
         <v>1328813</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>339</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,7 +5868,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5895,7 +5889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7829B58F-6C7D-4756-9D27-C6F262BC7078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BD1996-B097-49FC-9FC7-14B57FD53789}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5912,7 +5906,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6019,13 +6013,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6034,13 +6028,13 @@
         <v>484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6049,13 +6043,13 @@
         <v>858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,7 +6070,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6085,13 +6079,13 @@
         <v>1110</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6100,13 +6094,13 @@
         <v>1110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,10 +6115,10 @@
         <v>29290</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>18</v>
@@ -6136,13 +6130,13 @@
         <v>43826</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M6" s="7">
         <v>154</v>
@@ -6151,13 +6145,13 @@
         <v>73117</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6219,13 @@
         <v>721</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -6240,13 +6234,13 @@
         <v>1766</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6255,13 +6249,13 @@
         <v>2487</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6270,13 @@
         <v>2228</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>364</v>
+        <v>235</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>366</v>
+        <v>148</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -6291,13 +6285,13 @@
         <v>5393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -6306,13 +6300,13 @@
         <v>7620</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>206</v>
+        <v>373</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6321,13 @@
         <v>122028</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>317</v>
@@ -6342,13 +6336,13 @@
         <v>140060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>517</v>
@@ -6357,13 +6351,13 @@
         <v>262088</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6425,13 @@
         <v>1180</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -6446,13 +6440,13 @@
         <v>3210</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -6461,13 +6455,13 @@
         <v>4390</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6476,13 @@
         <v>3299</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>116</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -6500,10 +6494,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -6512,13 +6506,13 @@
         <v>11908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6527,13 @@
         <v>169367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>427</v>
@@ -6548,13 +6542,13 @@
         <v>231076</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>674</v>
@@ -6563,13 +6557,13 @@
         <v>400443</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,7 +6637,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6652,13 +6646,13 @@
         <v>1482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6667,13 +6661,13 @@
         <v>1482</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6682,13 @@
         <v>939</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -6703,13 +6697,13 @@
         <v>3400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6718,13 +6712,13 @@
         <v>4339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>332</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,7 +6748,7 @@
         <v>276232</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>412</v>
@@ -6843,13 +6837,13 @@
         <v>666</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -6864,7 +6858,7 @@
         <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>168</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -6873,13 +6867,13 @@
         <v>1997</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>420</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>361</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,13 +6888,13 @@
         <v>3539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -6909,13 +6903,13 @@
         <v>8831</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -6924,13 +6918,13 @@
         <v>12371</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6939,13 @@
         <v>216039</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>510</v>
@@ -6960,13 +6954,13 @@
         <v>299391</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>830</v>
@@ -6975,10 +6969,10 @@
         <v>515430</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>200</v>
+        <v>429</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>430</v>
@@ -7049,13 +7043,13 @@
         <v>2941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -7064,13 +7058,13 @@
         <v>8273</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -7079,13 +7073,13 @@
         <v>11214</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>388</v>
+        <v>116</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,13 +7094,13 @@
         <v>10005</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>434</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -7115,13 +7109,13 @@
         <v>27344</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -7130,13 +7124,13 @@
         <v>37348</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7145,13 @@
         <v>683976</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>200</v>
+        <v>429</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>1643</v>
@@ -7166,13 +7160,13 @@
         <v>990585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M26" s="7">
         <v>2648</v>
@@ -7181,13 +7175,13 @@
         <v>1674562</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,7 +7237,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5414-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FEAD190-E14D-439F-873E-3D2C235C9D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DF1CC85-86B3-46CF-BEA8-69D14D47A4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{062B6387-B1CE-4BC2-81FB-7EE9C8F0E971}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7F0F270-8A5C-4631-8F4A-854CD112C1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -119,1258 +119,1258 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,48%</t>
+    <t>6,58%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,93%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>98,82%</t>
+    <t>98,81%</t>
   </si>
   <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>95,44%</t>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>97,92%</t>
+    <t>97,85%</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C029BA-3C17-4F7E-B7B3-45F8669E9187}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B751BF77-EC3B-4030-9B67-9AC0A9AA460F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2814,10 +2814,10 @@
         <v>94</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2832,13 @@
         <v>134738</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>196</v>
@@ -2847,10 +2847,10 @@
         <v>204492</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>101</v>
@@ -2942,7 +2942,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -2951,7 +2951,7 @@
         <v>4363</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>107</v>
@@ -2972,7 +2972,7 @@
         <v>110</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2987,13 @@
         <v>8094</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3002,13 +3002,13 @@
         <v>8696</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -3017,13 +3017,13 @@
         <v>16790</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3038,13 @@
         <v>492548</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>648</v>
@@ -3053,13 +3053,13 @@
         <v>663783</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>1160</v>
@@ -3071,10 +3071,10 @@
         <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,7 +3130,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +3151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F5D5FB-EA8F-420E-9C8A-4BD0F2369C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B688A62-0DB6-469C-A969-8C9CA045C096}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3168,7 +3168,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3281,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,7 +3380,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -3395,7 +3395,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>20</v>
@@ -3410,7 +3410,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -3481,13 +3481,13 @@
         <v>1057</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3496,13 +3496,13 @@
         <v>2123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3511,13 +3511,13 @@
         <v>3180</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3532,13 @@
         <v>3186</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3547,13 +3547,13 @@
         <v>2110</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -3562,13 +3562,13 @@
         <v>5296</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3583,13 @@
         <v>114107</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -3598,13 +3598,13 @@
         <v>137359</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>231</v>
@@ -3613,13 +3613,13 @@
         <v>251466</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3687,13 @@
         <v>3028</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -3702,13 +3702,13 @@
         <v>4467</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -3717,13 +3717,13 @@
         <v>7494</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3738,13 @@
         <v>1111</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3756,10 +3756,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3768,13 +3768,13 @@
         <v>7892</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3789,13 @@
         <v>150739</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -3804,13 +3804,13 @@
         <v>180173</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>301</v>
@@ -3819,13 +3819,13 @@
         <v>330912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3893,13 @@
         <v>1062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3908,13 +3908,13 @@
         <v>2328</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3923,13 +3923,13 @@
         <v>3390</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3944,13 @@
         <v>4437</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3959,13 +3959,13 @@
         <v>6553</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3974,13 +3974,13 @@
         <v>10991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +3995,13 @@
         <v>98099</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H18" s="7">
         <v>122</v>
@@ -4010,13 +4010,13 @@
         <v>132138</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -4025,13 +4025,13 @@
         <v>230237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,7 +4105,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4114,13 +4114,13 @@
         <v>4236</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4129,13 +4129,13 @@
         <v>5228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4150,13 @@
         <v>5125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -4165,13 +4165,13 @@
         <v>6177</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -4180,13 +4180,13 @@
         <v>11302</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4201,13 @@
         <v>155496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="H22" s="7">
         <v>221</v>
@@ -4216,13 +4216,13 @@
         <v>233337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -4231,13 +4231,13 @@
         <v>388833</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,10 +4308,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -4320,13 +4320,13 @@
         <v>13153</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -4335,13 +4335,13 @@
         <v>19292</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4356,13 @@
         <v>13860</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4371,13 +4371,13 @@
         <v>21620</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -4386,13 +4386,13 @@
         <v>35480</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4407,13 @@
         <v>539639</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H26" s="7">
         <v>663</v>
@@ -4422,13 +4422,13 @@
         <v>708201</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M26" s="7">
         <v>1150</v>
@@ -4437,13 +4437,13 @@
         <v>1247840</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,7 +4499,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4520,7 +4520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC762A-82AB-4598-B5E2-615B66F05859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EDA71C-CB92-4118-8F6A-6DEB3E7D9795}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4537,7 +4537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4650,7 +4650,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4680,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,7 +4701,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4710,13 +4710,13 @@
         <v>1164</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4725,13 +4725,13 @@
         <v>1164</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,7 +4749,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -4761,10 +4761,10 @@
         <v>22275</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>18</v>
@@ -4776,10 +4776,10 @@
         <v>43963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>18</v>
@@ -4856,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4865,13 +4865,13 @@
         <v>1194</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4880,13 +4880,13 @@
         <v>1194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4901,13 @@
         <v>3354</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4916,13 +4916,13 @@
         <v>4609</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -4931,13 +4931,13 @@
         <v>7963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4952,13 @@
         <v>111692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -4967,28 +4967,28 @@
         <v>144148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>250</v>
       </c>
       <c r="N10" s="7">
-        <v>255841</v>
+        <v>255840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,7 +5030,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>20</v>
@@ -5056,13 +5056,13 @@
         <v>912</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5071,13 +5071,13 @@
         <v>3270</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -5086,13 +5086,13 @@
         <v>4182</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5107,13 @@
         <v>3443</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5122,13 +5122,13 @@
         <v>3608</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5137,13 +5137,13 @@
         <v>7051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5158,13 @@
         <v>160586</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>177</v>
@@ -5173,13 +5173,13 @@
         <v>212285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>347</v>
@@ -5188,13 +5188,13 @@
         <v>372871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,7 +5268,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5277,13 +5277,13 @@
         <v>3656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5292,13 +5292,13 @@
         <v>3656</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5313,13 @@
         <v>1020</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5328,13 +5328,13 @@
         <v>6949</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5343,13 +5343,13 @@
         <v>7969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,10 +5364,10 @@
         <v>114015</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>18</v>
@@ -5379,13 +5379,13 @@
         <v>131991</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>223</v>
@@ -5394,13 +5394,13 @@
         <v>246006</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,7 +5474,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5483,13 +5483,13 @@
         <v>1233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5498,13 +5498,13 @@
         <v>1233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5519,13 @@
         <v>764</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5534,13 +5534,13 @@
         <v>5270</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5549,13 +5549,13 @@
         <v>6034</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>315</v>
+        <v>203</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>86</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,10 +5570,10 @@
         <v>173854</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>18</v>
@@ -5585,13 +5585,13 @@
         <v>236277</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>382</v>
@@ -5600,13 +5600,13 @@
         <v>410132</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>174</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5674,13 @@
         <v>912</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>332</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -5692,10 +5692,10 @@
         <v>90</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -5704,13 +5704,13 @@
         <v>10265</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5725,13 @@
         <v>8581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -5740,13 +5740,13 @@
         <v>21600</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>337</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>330</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -5755,13 +5755,13 @@
         <v>30181</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5776,13 @@
         <v>581835</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H26" s="7">
         <v>631</v>
@@ -5791,13 +5791,13 @@
         <v>746978</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -5806,13 +5806,13 @@
         <v>1328813</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,7 +5868,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5889,7 +5889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BD1996-B097-49FC-9FC7-14B57FD53789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A09437-92A0-48DE-BD4A-DF1799A574A2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5906,7 +5906,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6013,13 +6013,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6028,13 +6028,13 @@
         <v>484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6043,13 +6043,13 @@
         <v>858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,7 +6070,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6079,13 +6079,13 @@
         <v>1110</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6094,13 +6094,13 @@
         <v>1110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,10 +6115,10 @@
         <v>29290</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>18</v>
@@ -6130,13 +6130,13 @@
         <v>43826</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>362</v>
+        <v>123</v>
       </c>
       <c r="M6" s="7">
         <v>154</v>
@@ -6145,13 +6145,13 @@
         <v>73117</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6219,13 @@
         <v>721</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -6237,10 +6237,10 @@
         <v>90</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6249,13 +6249,13 @@
         <v>2487</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6270,13 @@
         <v>2228</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>235</v>
+        <v>363</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>369</v>
+        <v>278</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>148</v>
+        <v>364</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -6285,13 +6285,13 @@
         <v>5393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -6300,13 +6300,13 @@
         <v>7620</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6321,13 @@
         <v>122028</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H10" s="7">
         <v>317</v>
@@ -6336,13 +6336,13 @@
         <v>140060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M10" s="7">
         <v>517</v>
@@ -6351,13 +6351,13 @@
         <v>262088</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6425,13 @@
         <v>1180</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>386</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -6440,13 +6440,13 @@
         <v>3210</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>234</v>
+        <v>379</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -6455,13 +6455,13 @@
         <v>4390</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6476,13 @@
         <v>3299</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -6494,10 +6494,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -6506,13 +6506,13 @@
         <v>11908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6527,13 @@
         <v>169367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>427</v>
@@ -6542,13 +6542,13 @@
         <v>231076</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>674</v>
@@ -6557,13 +6557,13 @@
         <v>400443</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,7 +6637,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6646,13 +6646,13 @@
         <v>1482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6661,13 +6661,13 @@
         <v>1482</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6682,13 @@
         <v>939</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -6697,13 +6697,13 @@
         <v>3400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6712,13 +6712,13 @@
         <v>4339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>224</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,10 +6733,10 @@
         <v>147251</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>411</v>
+        <v>251</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>18</v>
@@ -6748,13 +6748,13 @@
         <v>276232</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>412</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>473</v>
@@ -6763,13 +6763,13 @@
         <v>423484</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>413</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,13 +6837,13 @@
         <v>666</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -6852,13 +6852,13 @@
         <v>1331</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>168</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -6867,13 +6867,13 @@
         <v>1997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6888,13 @@
         <v>3539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -6903,13 +6903,13 @@
         <v>8831</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>114</v>
+        <v>413</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -6918,13 +6918,13 @@
         <v>12371</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6939,13 @@
         <v>216039</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>418</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>510</v>
@@ -6954,13 +6954,13 @@
         <v>299391</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>830</v>
@@ -6969,13 +6969,13 @@
         <v>515430</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7043,13 @@
         <v>2941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>428</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -7058,13 +7058,13 @@
         <v>8273</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>429</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -7073,13 +7073,13 @@
         <v>11214</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>116</v>
+        <v>385</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>406</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7094,13 @@
         <v>10005</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -7109,13 +7109,13 @@
         <v>27344</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -7124,13 +7124,13 @@
         <v>37348</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>203</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7145,13 @@
         <v>683976</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>1643</v>
@@ -7160,13 +7160,13 @@
         <v>990585</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M26" s="7">
         <v>2648</v>
@@ -7178,7 +7178,7 @@
         <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>443</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
